--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -7,19 +7,25 @@
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -27,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,83 +47,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +86,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -138,57 +183,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,181 +206,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +411,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +453,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -447,24 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,160 +491,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,26 +960,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="2" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -27,6 +28,15 @@
   <si>
     <t>manager</t>
   </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
 </sst>
 </file>
 
@@ -34,9 +44,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,9 +57,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -71,6 +141,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,114 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,43 +210,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,139 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +401,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,7 +447,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,64 +501,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,130 +522,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,8 +972,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -988,4 +998,37 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -37,16 +37,19 @@
   <si>
     <t>xyz</t>
   </si>
+  <si>
+    <t>damager</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,7 +61,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,37 +77,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,22 +146,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -141,61 +153,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,19 +213,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,163 +375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +404,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,45 +466,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +507,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,130 +525,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,13 +1006,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1027,6 +1030,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
